--- a/data/input/fix_categoria_Nov2021.xlsx
+++ b/data/input/fix_categoria_Nov2021.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26924"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\anapi\OneDrive - Universidad EAFIT\2021_BID_PulsoSocial\pulsosocialcolombia\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://eafit-my.sharepoint.com/personal/jmunozm1_eafit_edu_co/Documents/Projects/2023_BID_PulsoSocial/07_RPulsosocial/PulsoSocialColombia/data/input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CBE2C50-936B-4489-A8F4-AE4B7A1E6B57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{8CBE2C50-936B-4489-A8F4-AE4B7A1E6B57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D73966E1-F4B6-405E-AAD3-65485C426524}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -607,9 +607,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -647,9 +647,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -682,26 +682,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -734,26 +717,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -933,13 +899,14 @@
       <selection activeCell="J77" sqref="J77"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.453125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.54296875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="45.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -965,7 +932,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -988,7 +955,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>9</v>
       </c>
@@ -1011,7 +978,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>9</v>
       </c>
@@ -1034,7 +1001,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>9</v>
       </c>
@@ -1057,7 +1024,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>9</v>
       </c>
@@ -1080,7 +1047,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>9</v>
       </c>
@@ -1103,7 +1070,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>17</v>
       </c>
@@ -1129,7 +1096,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>17</v>
       </c>
@@ -1155,7 +1122,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>22</v>
       </c>
@@ -1178,7 +1145,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>22</v>
       </c>
@@ -1201,7 +1168,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>22</v>
       </c>
@@ -1224,7 +1191,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>22</v>
       </c>
@@ -1247,7 +1214,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>22</v>
       </c>
@@ -1270,7 +1237,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>22</v>
       </c>
@@ -1293,7 +1260,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>22</v>
       </c>
@@ -1316,7 +1283,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>22</v>
       </c>
@@ -1339,7 +1306,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>22</v>
       </c>
@@ -1362,7 +1329,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>22</v>
       </c>
@@ -1385,7 +1352,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>34</v>
       </c>
@@ -1408,7 +1375,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>34</v>
       </c>
@@ -1431,7 +1398,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>34</v>
       </c>
@@ -1454,7 +1421,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>34</v>
       </c>
@@ -1477,7 +1444,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>40</v>
       </c>
@@ -1500,7 +1467,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>40</v>
       </c>
@@ -1523,7 +1490,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>40</v>
       </c>
@@ -1546,7 +1513,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>40</v>
       </c>
@@ -1569,7 +1536,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>40</v>
       </c>
@@ -1592,7 +1559,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>40</v>
       </c>
@@ -1615,7 +1582,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>40</v>
       </c>
@@ -1638,7 +1605,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>40</v>
       </c>
@@ -1661,7 +1628,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>40</v>
       </c>
@@ -1684,7 +1651,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>40</v>
       </c>
@@ -1707,7 +1674,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>40</v>
       </c>
@@ -1730,7 +1697,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>40</v>
       </c>
@@ -1753,7 +1720,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>40</v>
       </c>
@@ -1776,7 +1743,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>40</v>
       </c>
@@ -1799,7 +1766,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>40</v>
       </c>
@@ -1822,7 +1789,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>40</v>
       </c>
@@ -1845,7 +1812,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>40</v>
       </c>
@@ -1868,7 +1835,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>40</v>
       </c>
@@ -1891,7 +1858,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>60</v>
       </c>
@@ -1914,7 +1881,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>63</v>
       </c>
@@ -1937,7 +1904,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>63</v>
       </c>
@@ -1960,7 +1927,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>67</v>
       </c>
@@ -1986,7 +1953,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>67</v>
       </c>
@@ -2012,7 +1979,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>67</v>
       </c>
@@ -2038,7 +2005,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>67</v>
       </c>
@@ -2064,7 +2031,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>67</v>
       </c>
@@ -2087,7 +2054,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>67</v>
       </c>
@@ -2110,7 +2077,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>67</v>
       </c>
@@ -2133,7 +2100,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>67</v>
       </c>
@@ -2156,7 +2123,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>80</v>
       </c>
@@ -2179,7 +2146,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>82</v>
       </c>
@@ -2202,7 +2169,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>82</v>
       </c>
@@ -2225,7 +2192,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>84</v>
       </c>
@@ -2248,7 +2215,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>84</v>
       </c>
@@ -2271,7 +2238,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>84</v>
       </c>
@@ -2294,7 +2261,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>84</v>
       </c>
@@ -2317,7 +2284,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>84</v>
       </c>
@@ -2340,7 +2307,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>84</v>
       </c>
@@ -2363,7 +2330,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>84</v>
       </c>
@@ -2386,7 +2353,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>84</v>
       </c>
@@ -2409,7 +2376,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>84</v>
       </c>
@@ -2432,7 +2399,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>84</v>
       </c>
@@ -2455,7 +2422,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>96</v>
       </c>
@@ -2478,7 +2445,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>96</v>
       </c>
@@ -2501,7 +2468,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>96</v>
       </c>
@@ -2524,7 +2491,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>96</v>
       </c>
@@ -2547,7 +2514,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>96</v>
       </c>
@@ -2570,7 +2537,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>96</v>
       </c>
@@ -2593,7 +2560,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>96</v>
       </c>
@@ -2616,7 +2583,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>96</v>
       </c>
@@ -2639,7 +2606,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>96</v>
       </c>
@@ -2662,7 +2629,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>96</v>
       </c>
@@ -2685,7 +2652,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>96</v>
       </c>
@@ -2708,7 +2675,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>96</v>
       </c>
@@ -2731,7 +2698,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>96</v>
       </c>
@@ -2754,7 +2721,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>96</v>
       </c>
@@ -2777,7 +2744,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>96</v>
       </c>
@@ -2800,7 +2767,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>96</v>
       </c>
@@ -2823,7 +2790,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>96</v>
       </c>
@@ -2846,7 +2813,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>96</v>
       </c>
